--- a/TemplateExportAnagraficaMaestri.xlsx
+++ b/TemplateExportAnagraficaMaestri.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10814"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Cartelle\localhost\waldorf\swapp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolacardi/Cartelle/localhost/waldorf/swapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A6F51D9-A054-CD41-BAD6-27621F716CE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="21600" windowHeight="9740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="FormazioneMaestri" sheetId="1" r:id="rId1"/>
+    <sheet name="ElencoMaestri" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -72,7 +73,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -439,47 +440,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" customWidth="1"/>
-    <col min="17" max="17" width="13.28515625" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" customWidth="1"/>
-    <col min="19" max="19" width="17.5703125" customWidth="1"/>
-    <col min="20" max="20" width="15.7109375" customWidth="1"/>
-    <col min="21" max="21" width="12.140625" customWidth="1"/>
-    <col min="22" max="22" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5" customWidth="1"/>
+    <col min="17" max="17" width="13.33203125" customWidth="1"/>
+    <col min="18" max="18" width="14.33203125" customWidth="1"/>
+    <col min="19" max="19" width="17.5" customWidth="1"/>
+    <col min="20" max="20" width="15.6640625" customWidth="1"/>
+    <col min="21" max="21" width="12.1640625" customWidth="1"/>
+    <col min="22" max="22" width="11.5" customWidth="1"/>
     <col min="23" max="23" width="28" customWidth="1"/>
-    <col min="24" max="24" width="29.140625" customWidth="1"/>
-    <col min="25" max="25" width="10.140625" customWidth="1"/>
-    <col min="26" max="26" width="9.7109375" customWidth="1"/>
+    <col min="24" max="24" width="29.1640625" customWidth="1"/>
+    <col min="25" max="25" width="10.1640625" customWidth="1"/>
+    <col min="26" max="26" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>

--- a/TemplateExportAnagraficaMaestri.xlsx
+++ b/TemplateExportAnagraficaMaestri.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolacardi/Cartelle/localhost/waldorf/swapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A6F51D9-A054-CD41-BAD6-27621F716CE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61CD3CD2-8DFE-4449-BC6E-B460C9E0BF53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="21600" windowHeight="9740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -133,10 +133,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -441,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -458,7 +460,7 @@
     <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.83203125" bestFit="1" customWidth="1"/>
@@ -482,50 +484,50 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
